--- a/public/files/downloads/031-palant-guide-to-adventurers-league-backgrounds.xlsx
+++ b/public/files/downloads/031-palant-guide-to-adventurers-league-backgrounds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4050d6280c872bd7/TRPG/ZZ_TOOLS/0_DEVELOPMENT/031_PALANT_AL_BACKGROUNDS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Palant\DOCS\GITHUB\cyborgsandmages\public\files\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{77B7749E-0969-4A0B-B80D-FC478F47835D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4C4AD405-95BE-44D7-B47B-29AA0B577904}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C12C99-F9FB-410F-B2F4-DCB7DCFD80EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15120" activeTab="3" xr2:uid="{3207D90D-7D8B-4BB9-A0B3-FE7AFF074154}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3207D90D-7D8B-4BB9-A0B3-FE7AFF074154}"/>
   </bookViews>
   <sheets>
     <sheet name="Backgrounds" sheetId="1" r:id="rId1"/>
@@ -1508,7 +1508,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1540,6 +1540,23 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1561,7 +1578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1582,12 +1599,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1598,28 +1625,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1647,24 +1677,23 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1718,18 +1747,18 @@
   <autoFilter ref="A2:B102" xr:uid="{6CEB1B00-0CD5-4759-BE13-60E809C68F27}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{15675C68-1FD7-416E-B167-47F5B7DE84AA}" name="d100"/>
-    <tableColumn id="2" xr3:uid="{11200DD8-FCFD-4AD8-ADF5-4F05312FE102}" name="Trinket" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{11200DD8-FCFD-4AD8-ADF5-4F05312FE102}" name="Trinket" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A89F44EB-706C-4F13-815B-0A95D5AA29A4}" name="Таблиця7" displayName="Таблиця7" ref="D2:E52" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A89F44EB-706C-4F13-815B-0A95D5AA29A4}" name="Таблиця7" displayName="Таблиця7" ref="D2:E52" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="D2:E52" xr:uid="{7941695B-F636-472A-BC85-E8CF195C98F3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{431F7A99-B180-4482-9A2F-C6F18924B597}" name="d100" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{AD7D9F64-9FED-4876-ACC5-3D721C2F1EDE}" name="Trinket" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{431F7A99-B180-4482-9A2F-C6F18924B597}" name="d100" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{AD7D9F64-9FED-4876-ACC5-3D721C2F1EDE}" name="Trinket" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1778,7 +1807,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BD4B05B2-F042-4FBA-BAB7-E4BB850AEC87}" name="Таблиця8" displayName="Таблиця8" ref="H2:H4" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BD4B05B2-F042-4FBA-BAB7-E4BB850AEC87}" name="Таблиця8" displayName="Таблиця8" ref="H2:H4" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="H2:H4" xr:uid="{0C20E171-DC29-4A21-9DE5-F883320E61C3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{4D1CDA61-A27C-49ED-A13D-C72368A73BF5}" name="Type"/>
@@ -1798,9 +1827,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема &quot;Office 2013 – 2022&quot;">
   <a:themeElements>
-    <a:clrScheme name="Офіс">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1838,7 +1867,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Офіс">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1944,7 +1973,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Офіс">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2086,7 +2115,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2096,24 +2125,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94634808-1ABF-4DB5-A9CC-27941ED796A9}">
   <dimension ref="A2:M80"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="36.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="11.69921875" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="19.25" customWidth="1"/>
-    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.19921875" customWidth="1"/>
+    <col min="9" max="9" width="27.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2154,7 +2183,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2177,7 +2206,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2200,7 +2229,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2223,7 +2252,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2246,7 +2275,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2269,7 +2298,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2292,7 +2321,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2315,7 +2344,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2338,7 +2367,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2361,7 +2390,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2384,7 +2413,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2407,7 +2436,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2430,7 +2459,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2453,7 +2482,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2476,7 +2505,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2499,7 +2528,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2522,7 +2551,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2545,7 +2574,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2568,7 +2597,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2591,7 +2620,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2614,7 +2643,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2637,7 +2666,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2660,7 +2689,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2683,7 +2712,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2706,7 +2735,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2729,7 +2758,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2752,7 +2781,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2775,7 +2804,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2798,7 +2827,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2821,7 +2850,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2844,7 +2873,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2867,7 +2896,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2890,7 +2919,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2913,7 +2942,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2936,7 +2965,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2959,7 +2988,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2982,7 +3011,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3005,7 +3034,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3028,7 +3057,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3051,7 +3080,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3074,7 +3103,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3097,7 +3126,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3120,7 +3149,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3143,7 +3172,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3166,7 +3195,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3189,7 +3218,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3212,7 +3241,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3235,7 +3264,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3258,7 +3287,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3281,7 +3310,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3304,7 +3333,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3327,7 +3356,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3350,7 +3379,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3373,7 +3402,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3396,7 +3425,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3419,7 +3448,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3442,7 +3471,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3465,7 +3494,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3488,7 +3517,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3511,7 +3540,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3534,7 +3563,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3557,7 +3586,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3580,7 +3609,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3603,7 +3632,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3626,7 +3655,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3649,7 +3678,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3672,7 +3701,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3695,14 +3724,14 @@
         <v>459</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>471</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="H70" t="s">
         <v>460</v>
       </c>
       <c r="I70" t="s">
@@ -3721,7 +3750,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3744,7 +3773,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3767,7 +3796,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3790,7 +3819,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3813,7 +3842,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3836,7 +3865,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3859,7 +3888,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3882,7 +3911,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3905,7 +3934,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3928,7 +3957,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3999,29 +4028,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E415A537-9F71-4F8C-B8FE-821970EBF447}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:A102"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="32.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="39.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="36.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32.19921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="39.19921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="36.09765625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4041,7 +4070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4061,7 +4090,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4081,7 +4110,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4101,7 +4130,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4121,7 +4150,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4141,7 +4170,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4161,7 +4190,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4181,7 +4210,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4201,7 +4230,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4221,7 +4250,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4241,7 +4270,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4261,7 +4290,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4281,7 +4310,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4301,7 +4330,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4321,7 +4350,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4341,7 +4370,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4361,7 +4390,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4381,7 +4410,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4401,7 +4430,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4421,7 +4450,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4441,7 +4470,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4461,7 +4490,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4481,7 +4510,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4501,7 +4530,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4521,7 +4550,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4541,7 +4570,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4561,7 +4590,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4581,7 +4610,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4601,7 +4630,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4621,7 +4650,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4641,7 +4670,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4661,7 +4690,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4681,7 +4710,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4701,7 +4730,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4721,7 +4750,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4741,7 +4770,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4761,7 +4790,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4781,7 +4810,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4801,7 +4830,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4821,7 +4850,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4841,7 +4870,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4861,7 +4890,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4881,7 +4910,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4901,7 +4930,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4921,7 +4950,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4941,7 +4970,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4961,7 +4990,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4981,7 +5010,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5001,7 +5030,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5021,7 +5050,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5041,7 +5070,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5055,7 +5084,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5069,7 +5098,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5083,7 +5112,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5097,7 +5126,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5111,7 +5140,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5125,7 +5154,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5139,7 +5168,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5153,7 +5182,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5167,7 +5196,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5181,7 +5210,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5195,7 +5224,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5209,7 +5238,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5223,7 +5252,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5234,7 +5263,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5248,7 +5277,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5262,7 +5291,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5276,7 +5305,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>68</v>
       </c>
@@ -5290,7 +5319,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5304,7 +5333,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5318,7 +5347,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5332,7 +5361,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5346,7 +5375,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5360,7 +5389,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5374,7 +5403,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5388,7 +5417,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5402,7 +5431,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5416,7 +5445,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5430,7 +5459,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5444,7 +5473,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5458,7 +5487,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5472,7 +5501,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5486,7 +5515,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5500,7 +5529,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5514,7 +5543,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5528,7 +5557,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5542,7 +5571,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5556,7 +5585,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5570,7 +5599,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5584,7 +5613,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5598,7 +5627,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5612,7 +5641,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5626,7 +5655,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5640,7 +5669,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5654,7 +5683,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5668,7 +5697,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5682,7 +5711,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5696,7 +5725,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5710,7 +5739,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5721,7 +5750,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5751,18 +5780,18 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.25" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="1" max="1" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.19921875" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" customWidth="1"/>
     <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>472</v>
       </c>
@@ -5779,7 +5808,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5799,7 +5828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5816,7 +5845,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>451</v>
       </c>
@@ -5836,7 +5865,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>452</v>
       </c>
@@ -5847,7 +5876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>453</v>
       </c>
@@ -5855,7 +5884,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>454</v>
       </c>
@@ -5863,52 +5892,52 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>457</v>
       </c>
@@ -5935,26 +5964,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A41D01-2888-40DD-A690-5954207ED73F}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="29.4" x14ac:dyDescent="0.65">
+      <c r="A1" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>404</v>
       </c>
@@ -5964,14 +5993,14 @@
       <c r="C2" t="s">
         <v>406</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>484</v>
       </c>
       <c r="G2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>407</v>
       </c>
@@ -5981,14 +6010,14 @@
       <c r="C3" t="s">
         <v>408</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="8" t="s">
         <v>485</v>
       </c>
       <c r="G3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>409</v>
       </c>
@@ -5998,14 +6027,14 @@
       <c r="C4" t="s">
         <v>411</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>481</v>
       </c>
       <c r="G4" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>412</v>
       </c>
@@ -6015,11 +6044,11 @@
       <c r="C5" t="s">
         <v>408</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="8" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>413</v>
       </c>
@@ -6029,14 +6058,14 @@
       <c r="C6" t="s">
         <v>411</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="8" t="s">
         <v>483</v>
       </c>
       <c r="G6" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>415</v>
       </c>
@@ -6047,7 +6076,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>417</v>
       </c>
@@ -6061,7 +6090,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>419</v>
       </c>
@@ -6072,7 +6101,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>421</v>
       </c>
@@ -6083,7 +6112,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>423</v>
       </c>
@@ -6094,7 +6123,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>426</v>
       </c>
@@ -6105,7 +6134,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>429</v>
       </c>
@@ -6116,7 +6145,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>430</v>
       </c>
@@ -6127,7 +6156,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>432</v>
       </c>
@@ -6138,7 +6167,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>434</v>
       </c>
@@ -6149,7 +6178,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>436</v>
       </c>
@@ -6160,7 +6189,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>438</v>
       </c>
@@ -6171,7 +6200,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>440</v>
       </c>
@@ -6182,7 +6211,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>442</v>
       </c>
@@ -6193,7 +6222,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>444</v>
       </c>
@@ -6204,7 +6233,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>446</v>
       </c>
@@ -6215,7 +6244,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>448</v>
       </c>
@@ -6226,7 +6255,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>450</v>
       </c>
@@ -6237,262 +6266,262 @@
         <v>411</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>259</v>
       </c>

--- a/public/files/downloads/031-palant-guide-to-adventurers-league-backgrounds.xlsx
+++ b/public/files/downloads/031-palant-guide-to-adventurers-league-backgrounds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Palant\DOCS\GITHUB\cyborgsandmages\public\files\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4050d6280c872bd7/TRPG/ZZ_TOOLS/0_DEVELOPMENT/031_PALANT_AL_BACKGROUNDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C12C99-F9FB-410F-B2F4-DCB7DCFD80EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{77B7749E-0969-4A0B-B80D-FC478F47835D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4C4AD405-95BE-44D7-B47B-29AA0B577904}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3207D90D-7D8B-4BB9-A0B3-FE7AFF074154}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15120" activeTab="3" xr2:uid="{3207D90D-7D8B-4BB9-A0B3-FE7AFF074154}"/>
   </bookViews>
   <sheets>
     <sheet name="Backgrounds" sheetId="1" r:id="rId1"/>
@@ -1508,7 +1508,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1540,23 +1540,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1578,7 +1561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1599,22 +1582,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1625,31 +1598,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1677,23 +1647,24 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1747,18 +1718,18 @@
   <autoFilter ref="A2:B102" xr:uid="{6CEB1B00-0CD5-4759-BE13-60E809C68F27}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{15675C68-1FD7-416E-B167-47F5B7DE84AA}" name="d100"/>
-    <tableColumn id="2" xr3:uid="{11200DD8-FCFD-4AD8-ADF5-4F05312FE102}" name="Trinket" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{11200DD8-FCFD-4AD8-ADF5-4F05312FE102}" name="Trinket" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A89F44EB-706C-4F13-815B-0A95D5AA29A4}" name="Таблиця7" displayName="Таблиця7" ref="D2:E52" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A89F44EB-706C-4F13-815B-0A95D5AA29A4}" name="Таблиця7" displayName="Таблиця7" ref="D2:E52" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="D2:E52" xr:uid="{7941695B-F636-472A-BC85-E8CF195C98F3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{431F7A99-B180-4482-9A2F-C6F18924B597}" name="d100" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{AD7D9F64-9FED-4876-ACC5-3D721C2F1EDE}" name="Trinket" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{431F7A99-B180-4482-9A2F-C6F18924B597}" name="d100" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{AD7D9F64-9FED-4876-ACC5-3D721C2F1EDE}" name="Trinket" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1807,7 +1778,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BD4B05B2-F042-4FBA-BAB7-E4BB850AEC87}" name="Таблиця8" displayName="Таблиця8" ref="H2:H4" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BD4B05B2-F042-4FBA-BAB7-E4BB850AEC87}" name="Таблиця8" displayName="Таблиця8" ref="H2:H4" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="6">
   <autoFilter ref="H2:H4" xr:uid="{0C20E171-DC29-4A21-9DE5-F883320E61C3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{4D1CDA61-A27C-49ED-A13D-C72368A73BF5}" name="Type"/>
@@ -1827,9 +1798,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема &quot;Office 2013 – 2022&quot;">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013–2022">
+    <a:clrScheme name="Офіс">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1867,7 +1838,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013–2022">
+    <a:fontScheme name="Офіс">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1973,7 +1944,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013–2022">
+    <a:fmtScheme name="Офіс">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2115,7 +2086,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2125,24 +2096,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94634808-1ABF-4DB5-A9CC-27941ED796A9}">
   <dimension ref="A2:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:L8"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="36.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="11.69921875" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="19.19921875" customWidth="1"/>
-    <col min="9" max="9" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
+    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2183,7 +2154,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2206,7 +2177,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2229,7 +2200,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2252,7 +2223,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2275,7 +2246,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2298,7 +2269,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2321,7 +2292,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2344,7 +2315,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2367,7 +2338,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2390,7 +2361,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2413,7 +2384,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2436,7 +2407,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2459,7 +2430,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2482,7 +2453,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2505,7 +2476,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2528,7 +2499,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2551,7 +2522,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2574,7 +2545,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2597,7 +2568,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2620,7 +2591,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2643,7 +2614,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2666,7 +2637,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2689,7 +2660,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2712,7 +2683,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2735,7 +2706,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2758,7 +2729,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2781,7 +2752,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2804,7 +2775,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2827,7 +2798,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2850,7 +2821,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2873,7 +2844,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2896,7 +2867,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2919,7 +2890,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2942,7 +2913,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2965,7 +2936,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2988,7 +2959,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3011,7 +2982,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3034,7 +3005,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3057,7 +3028,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3080,7 +3051,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3103,7 +3074,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3126,7 +3097,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3149,7 +3120,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3172,7 +3143,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3195,7 +3166,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3218,7 +3189,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3241,7 +3212,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3264,7 +3235,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3287,7 +3258,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3310,7 +3281,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3333,7 +3304,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3356,7 +3327,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3379,7 +3350,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3402,7 +3373,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3425,7 +3396,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3448,7 +3419,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3471,7 +3442,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3494,7 +3465,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3517,7 +3488,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3540,7 +3511,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3563,7 +3534,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3586,7 +3557,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3609,7 +3580,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3632,7 +3603,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3655,7 +3626,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3678,7 +3649,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3701,7 +3672,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3724,14 +3695,14 @@
         <v>459</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>471</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="6" t="s">
         <v>460</v>
       </c>
       <c r="I70" t="s">
@@ -3750,7 +3721,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3773,7 +3744,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3796,7 +3767,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3819,7 +3790,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3842,7 +3813,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3865,7 +3836,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3888,7 +3859,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3911,7 +3882,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3934,7 +3905,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3957,7 +3928,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4028,29 +3999,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E415A537-9F71-4F8C-B8FE-821970EBF447}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:A102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.19921875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="39.19921875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="36.09765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="39.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="36.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>392</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" t="s">
         <v>391</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4070,7 +4041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4090,7 +4061,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4110,7 +4081,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4130,7 +4101,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4150,7 +4121,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4170,7 +4141,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4190,7 +4161,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4210,7 +4181,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4230,7 +4201,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4250,7 +4221,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4270,7 +4241,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4290,7 +4261,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4310,7 +4281,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4330,7 +4301,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4350,7 +4321,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4370,7 +4341,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4390,7 +4361,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4410,7 +4381,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4430,7 +4401,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4450,7 +4421,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4470,7 +4441,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4490,7 +4461,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4510,7 +4481,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4530,7 +4501,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4550,7 +4521,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4570,7 +4541,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4590,7 +4561,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4610,7 +4581,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4630,7 +4601,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4650,7 +4621,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4670,7 +4641,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4690,7 +4661,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4710,7 +4681,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4730,7 +4701,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4750,7 +4721,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4770,7 +4741,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4790,7 +4761,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4810,7 +4781,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4830,7 +4801,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4850,7 +4821,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4870,7 +4841,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4890,7 +4861,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4910,7 +4881,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4930,7 +4901,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4950,7 +4921,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4970,7 +4941,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4990,7 +4961,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5010,7 +4981,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5030,7 +5001,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5050,7 +5021,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5070,7 +5041,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5084,7 +5055,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5098,7 +5069,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5112,7 +5083,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5126,7 +5097,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5140,7 +5111,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5154,7 +5125,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5168,7 +5139,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5182,7 +5153,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5196,7 +5167,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5210,7 +5181,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5224,7 +5195,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5238,7 +5209,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5252,7 +5223,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5263,7 +5234,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5277,7 +5248,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5291,7 +5262,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5305,7 +5276,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -5319,7 +5290,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5333,7 +5304,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5347,7 +5318,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5361,7 +5332,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5375,7 +5346,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5389,7 +5360,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5403,7 +5374,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5417,7 +5388,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5431,7 +5402,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5445,7 +5416,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5459,7 +5430,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5473,7 +5444,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5487,7 +5458,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5501,7 +5472,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5515,7 +5486,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5529,7 +5500,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5543,7 +5514,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5557,7 +5528,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5571,7 +5542,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5585,7 +5556,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5599,7 +5570,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5613,7 +5584,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5627,7 +5598,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5641,7 +5612,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5655,7 +5626,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5669,7 +5640,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5683,7 +5654,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5697,7 +5668,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5711,7 +5682,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5725,7 +5696,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5739,7 +5710,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5750,7 +5721,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5780,18 +5751,18 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.19921875" customWidth="1"/>
-    <col min="3" max="3" width="21.69921875" customWidth="1"/>
+    <col min="1" max="1" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.25" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>472</v>
       </c>
@@ -5808,7 +5779,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5828,7 +5799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5845,7 +5816,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>451</v>
       </c>
@@ -5865,7 +5836,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>452</v>
       </c>
@@ -5876,7 +5847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>453</v>
       </c>
@@ -5884,7 +5855,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>454</v>
       </c>
@@ -5892,52 +5863,52 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>457</v>
       </c>
@@ -5964,26 +5935,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A41D01-2888-40DD-A690-5954207ED73F}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>404</v>
       </c>
@@ -5993,14 +5964,14 @@
       <c r="C2" t="s">
         <v>406</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" t="s">
         <v>484</v>
       </c>
       <c r="G2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>407</v>
       </c>
@@ -6010,14 +5981,14 @@
       <c r="C3" t="s">
         <v>408</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" t="s">
         <v>485</v>
       </c>
       <c r="G3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>409</v>
       </c>
@@ -6027,14 +5998,14 @@
       <c r="C4" t="s">
         <v>411</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" t="s">
         <v>481</v>
       </c>
       <c r="G4" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>412</v>
       </c>
@@ -6044,11 +6015,11 @@
       <c r="C5" t="s">
         <v>408</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>413</v>
       </c>
@@ -6058,14 +6029,14 @@
       <c r="C6" t="s">
         <v>411</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" t="s">
         <v>483</v>
       </c>
       <c r="G6" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>415</v>
       </c>
@@ -6076,7 +6047,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>417</v>
       </c>
@@ -6090,7 +6061,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>419</v>
       </c>
@@ -6101,7 +6072,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>421</v>
       </c>
@@ -6112,7 +6083,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>423</v>
       </c>
@@ -6123,7 +6094,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>426</v>
       </c>
@@ -6134,7 +6105,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>429</v>
       </c>
@@ -6145,7 +6116,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>430</v>
       </c>
@@ -6156,7 +6127,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>432</v>
       </c>
@@ -6167,7 +6138,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>434</v>
       </c>
@@ -6178,7 +6149,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>436</v>
       </c>
@@ -6189,7 +6160,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>438</v>
       </c>
@@ -6200,7 +6171,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>440</v>
       </c>
@@ -6211,7 +6182,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>442</v>
       </c>
@@ -6222,7 +6193,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>444</v>
       </c>
@@ -6233,7 +6204,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>446</v>
       </c>
@@ -6244,7 +6215,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>448</v>
       </c>
@@ -6255,7 +6226,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>450</v>
       </c>
@@ -6266,262 +6237,262 @@
         <v>411</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>259</v>
       </c>
